--- a/Propane 20KW/Propane 20KW_AVE_MASS_FRAC.xlsx
+++ b/Propane 20KW/Propane 20KW_AVE_MASS_FRAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Propane 20KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Propane 20KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{32A7F3DB-ABF4-4E06-B00A-C1AEF30ECB5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D582A645-4D74-4EE3-B2E6-C0DDD0A3C2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-945" windowWidth="16200" windowHeight="10995" xr2:uid="{FFA7F234-BF51-48EF-8C2F-8827DF1B2FB1}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{70E8F5CA-C1CC-453C-962B-4C21F4600695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2B12EA-3324-4099-871D-A5C7BB2C7682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EA7E56-0D92-41E2-887B-DC613ACD9B6A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538B2242-BFF5-4145-9608-F72A4E0DB2B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8BD93-D196-4D1F-9808-C9A08D474037}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE43125-F338-478D-99BC-7BD2E9894EF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E64B3D-18E6-4CF0-BEB2-1771B8FEF045}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F633DB1-BEAC-4E04-96B0-CAC3EFF6BC64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47AFB2-A8E4-4ED7-8F10-F896D59C3608}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -610,55 +610,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9.2644259115839706E-2</v>
+        <v>9.2761700619202803E-2</v>
       </c>
       <c r="C2">
-        <v>1.6351663419976411E-3</v>
+        <v>1.6372391784074249E-3</v>
       </c>
       <c r="D2">
-        <v>4.6489260091316521E-2</v>
+        <v>4.6548192707837659E-2</v>
       </c>
       <c r="E2">
-        <v>1.0975785802214694E-2</v>
+        <v>1.0989699376541977E-2</v>
       </c>
       <c r="F2">
-        <v>1.5792131310008974E-2</v>
+        <v>1.5812150377137867E-2</v>
       </c>
       <c r="G2">
-        <v>0.10922988983081344</v>
+        <v>0.10936835628946209</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.66579210810823353</v>
+        <v>0.66663610672023221</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.2101918588549839E-3</v>
+        <v>4.2155289543865391E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.2471155269717625E-2</v>
+        <v>3.2512317683095433E-2</v>
       </c>
       <c r="N2">
-        <v>8.0806847420107891E-3</v>
+        <v>8.0909283099702238E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>5.5540566184548372E-4</v>
+        <v>7.3659725009356518E-4</v>
       </c>
       <c r="Q2">
-        <v>6.470435269077732E-4</v>
+        <v>6.4786375867676447E-4</v>
       </c>
       <c r="R2">
-        <v>1.0030603371423395E-2</v>
+        <v>1.0043318774955361E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,55 +666,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>9.5285147215348753E-2</v>
+        <v>9.5416265343469739E-2</v>
       </c>
       <c r="C3">
-        <v>1.6780264825107017E-3</v>
+        <v>1.6803355484853479E-3</v>
       </c>
       <c r="D3">
-        <v>6.6553256938921529E-2</v>
+        <v>6.664483824750117E-2</v>
       </c>
       <c r="E3">
-        <v>1.1460639433376307E-2</v>
+        <v>1.1476409966701703E-2</v>
       </c>
       <c r="F3">
-        <v>1.5916418938656661E-2</v>
+        <v>1.5938320894193354E-2</v>
       </c>
       <c r="G3">
-        <v>4.876321753675178E-2</v>
+        <v>4.8830318674667014E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.69778251033676331</v>
+        <v>0.69874270129269511</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5.0378892972979617E-3</v>
+        <v>5.0448217378057155E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.5246201605005953E-2</v>
+        <v>3.5294702511105974E-2</v>
       </c>
       <c r="N3">
-        <v>8.6915081529920987E-3</v>
+        <v>8.703468194119943E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>9.325421431188093E-4</v>
+        <v>1.0710609687290778E-3</v>
       </c>
       <c r="Q3">
-        <v>5.3273132739601551E-4</v>
+        <v>5.3346439793723827E-4</v>
       </c>
       <c r="R3">
-        <v>1.0608694017705216E-2</v>
+        <v>1.0623292222588768E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,55 +722,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9.5024433936326896E-2</v>
+        <v>9.516373181929591E-2</v>
       </c>
       <c r="C4">
-        <v>1.8551223588213913E-3</v>
+        <v>1.8578418132451369E-3</v>
       </c>
       <c r="D4">
-        <v>6.3513445661912679E-2</v>
+        <v>6.3606551068114803E-2</v>
       </c>
       <c r="E4">
-        <v>1.1672175680142362E-2</v>
+        <v>1.1689286114738339E-2</v>
       </c>
       <c r="F4">
-        <v>1.6847807797968618E-2</v>
+        <v>1.6872505276940068E-2</v>
       </c>
       <c r="G4">
-        <v>3.5495574968029533E-2</v>
+        <v>3.5547608516065421E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.71213457804163338</v>
+        <v>0.71317850785000858</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5.2162520824781226E-3</v>
+        <v>5.2238986723289948E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.5686174987659226E-2</v>
+        <v>3.5738487939403485E-2</v>
       </c>
       <c r="N4">
-        <v>8.8213494314788119E-3</v>
+        <v>8.8342807929174694E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.2033666785548375E-3</v>
+        <v>1.2558082432530832E-3</v>
       </c>
       <c r="Q4">
-        <v>4.9969661138054297E-4</v>
+        <v>5.0042912487427004E-4</v>
       </c>
       <c r="R4">
-        <v>1.0515647707623995E-2</v>
+        <v>1.0531062768814476E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,55 +778,55 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9.5425005910476382E-2</v>
+        <v>9.5569775143167751E-2</v>
       </c>
       <c r="C5">
-        <v>1.3698075260932972E-3</v>
+        <v>1.3718856604627442E-3</v>
       </c>
       <c r="D5">
-        <v>6.2314039105047167E-2</v>
+        <v>6.2408575705187361E-2</v>
       </c>
       <c r="E5">
-        <v>1.2011552090568164E-2</v>
+        <v>1.2029774810734578E-2</v>
       </c>
       <c r="F5">
-        <v>2.988245323795154E-2</v>
+        <v>2.9927787894050342E-2</v>
       </c>
       <c r="G5">
-        <v>1.2097575619577181E-2</v>
+        <v>1.2115928845999963E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.73466516446314167</v>
+        <v>0.73577972464712615</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.0961692623190183E-3</v>
+        <v>4.1023835588278029E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.0674853344308615E-2</v>
+        <v>3.0721390150245383E-2</v>
       </c>
       <c r="N5">
-        <v>6.9015317301520914E-3</v>
+        <v>6.912002040773883E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.1089939205112804E-3</v>
+        <v>1.1139645570875107E-3</v>
       </c>
       <c r="Q5">
-        <v>3.0730289872600678E-4</v>
+        <v>3.0776910781269172E-4</v>
       </c>
       <c r="R5">
-        <v>7.6274662529705189E-3</v>
+        <v>7.6390378785238591E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,55 +834,55 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8.8029057981220918E-2</v>
+        <v>8.8173806741343508E-2</v>
       </c>
       <c r="C6">
-        <v>9.5490248804164137E-4</v>
+        <v>9.5647266219040232E-4</v>
       </c>
       <c r="D6">
-        <v>6.1537061057227484E-2</v>
+        <v>6.1638248250341816E-2</v>
       </c>
       <c r="E6">
-        <v>1.2075609387442354E-2</v>
+        <v>1.2095465665887714E-2</v>
       </c>
       <c r="F6">
-        <v>5.2372438285798031E-2</v>
+        <v>5.245855582107891E-2</v>
       </c>
       <c r="G6">
-        <v>4.0518395004102018E-3</v>
+        <v>4.058502058857944E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.74192406802953115</v>
+        <v>0.74314403551998398</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.8626523725277051E-3</v>
+        <v>2.8673595157266475E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.3749053837433157E-2</v>
+        <v>2.3788105102729933E-2</v>
       </c>
       <c r="N6">
-        <v>4.8179658819921629E-3</v>
+        <v>4.8258882045038943E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>8.9929544623322348E-4</v>
+        <v>7.7604439354348582E-4</v>
       </c>
       <c r="Q6">
-        <v>1.9356586082197748E-4</v>
+        <v>1.9388414684023796E-4</v>
       </c>
       <c r="R6">
-        <v>5.0153849724632552E-3</v>
+        <v>5.0236319169716945E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,55 +890,55 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7.4982007810905887E-2</v>
+        <v>7.2358943824149383E-2</v>
       </c>
       <c r="C7">
-        <v>5.2384271170893934E-4</v>
+        <v>5.3657168005852415E-4</v>
       </c>
       <c r="D7">
-        <v>3.0866257911465824E-2</v>
+        <v>4.0871783461014305E-2</v>
       </c>
       <c r="E7">
-        <v>1.2228275808817794E-2</v>
+        <v>1.2225467669854174E-2</v>
       </c>
       <c r="F7">
-        <v>9.2079041184647062E-2</v>
+        <v>8.9222077093369601E-2</v>
       </c>
       <c r="G7">
-        <v>8.8679248931137003E-4</v>
+        <v>8.6967896062315571E-4</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.76750486395895301</v>
+        <v>0.76330333898807867</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.2580890403406473E-3</v>
+        <v>1.3129180008268513E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.3410082589401651E-2</v>
+        <v>1.4291174863549772E-2</v>
       </c>
       <c r="N7">
-        <v>2.4659766519577087E-3</v>
+        <v>2.4575310188253542E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>3.497661162773693E-4</v>
+        <v>4.3958302241713885E-4</v>
       </c>
       <c r="Q7">
-        <v>6.8092161614898301E-5</v>
+        <v>7.5728809742553856E-5</v>
       </c>
       <c r="R7">
-        <v>1.9424439571620606E-3</v>
+        <v>2.0352026074905286E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.7862774089217434E-2</v>
+        <v>3.7858167634283332E-2</v>
       </c>
       <c r="C8">
-        <v>6.5532224644508042E-5</v>
+        <v>6.5524251873182635E-5</v>
       </c>
       <c r="D8">
-        <v>2.1847684496976608E-2</v>
+        <v>2.1845026467382345E-2</v>
       </c>
       <c r="E8">
-        <v>1.2039848192646673E-2</v>
+        <v>1.2038383402507905E-2</v>
       </c>
       <c r="F8">
-        <v>0.16185855818608691</v>
+        <v>0.16183886617534676</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,34 +967,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.76367631138062131</v>
+        <v>0.76358340111196588</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.1201842392286788E-4</v>
+        <v>1.1200479555479405E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.0717580327567911E-3</v>
+        <v>2.071505978853137E-3</v>
       </c>
       <c r="N8">
-        <v>3.0279457124233295E-4</v>
+        <v>3.027577326962868E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>4.873858106795896E-5</v>
+        <v>1.7039449595845208E-4</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.1398182081657633E-4</v>
+        <v>1.1396795357801469E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.2546442719830497E-2</v>
+        <v>2.2546442719830542E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.0822795216941253E-2</v>
+        <v>1.0822795216941268E-2</v>
       </c>
       <c r="E9">
-        <v>1.210854914161516E-2</v>
+        <v>1.2108549141615198E-2</v>
       </c>
       <c r="F9">
-        <v>0.1922463213709299</v>
+        <v>0.19224632137092926</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.76202726328844872</v>
+        <v>0.76202726328844927</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.5953768258004935E-4</v>
+        <v>1.5953768258004949E-4</v>
       </c>
       <c r="N9">
-        <v>8.9090579654502609E-5</v>
+        <v>8.9090579654502744E-5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.4857412187909071E-2</v>
+        <v>1.4857412187909105E-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.2692967828021328E-3</v>
+        <v>7.2692967828021458E-3</v>
       </c>
       <c r="E10">
-        <v>1.2039168350931701E-2</v>
+        <v>1.2039168350931741E-2</v>
       </c>
       <c r="F10">
-        <v>0.20533717410973232</v>
+        <v>0.20533717410973165</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.76047183767504223</v>
+        <v>0.76047183767504278</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.5110893582626362E-5</v>
+        <v>2.5110893582626376E-5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1115,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8F9E5-9B6C-4FB9-8F5B-A48317BBF7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD4D6-471F-46D1-88FE-A34339C088A1}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1202,55 +1202,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.6130919456194336E-2</v>
+        <v>1.61599872287603E-2</v>
       </c>
       <c r="C2">
-        <v>5.4187618102198608E-4</v>
+        <v>5.4264304260389024E-4</v>
       </c>
       <c r="D2">
-        <v>2.8953520694324341E-2</v>
+        <v>2.8991433428082677E-2</v>
       </c>
       <c r="E2">
-        <v>1.1423346522349176E-3</v>
+        <v>1.1454902448681699E-3</v>
       </c>
       <c r="F2">
-        <v>3.2245937503528081E-3</v>
+        <v>3.2299343780675472E-3</v>
       </c>
       <c r="G2">
-        <v>3.51724556321584E-2</v>
+        <v>3.5222538460259328E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.1658470008884488E-2</v>
+        <v>5.1862809938335752E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.2785761335458428E-4</v>
+        <v>9.2934331947335251E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.9181225476656008E-3</v>
+        <v>4.9278296197123837E-3</v>
       </c>
       <c r="N2">
-        <v>2.7191873350901796E-3</v>
+        <v>2.7230234171748639E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.8322112563483802E-5</v>
+        <v>2.1502976722915121E-4</v>
       </c>
       <c r="Q2">
-        <v>8.8463364412024966E-5</v>
+        <v>8.8652157775014425E-5</v>
       </c>
       <c r="R2">
-        <v>2.6563745785926963E-3</v>
+        <v>2.6603556117960063E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,55 +1258,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.7567410628866978E-3</v>
+        <v>8.7678025539806616E-3</v>
       </c>
       <c r="C3">
-        <v>1.1345153906186975E-4</v>
+        <v>1.1358399630787833E-4</v>
       </c>
       <c r="D3">
-        <v>5.0808941867149994E-2</v>
+        <v>5.0878774953071158E-2</v>
       </c>
       <c r="E3">
-        <v>9.6854858669331216E-4</v>
+        <v>9.6975210105703096E-4</v>
       </c>
       <c r="F3">
-        <v>8.3402499846389527E-4</v>
+        <v>8.3488309989415926E-4</v>
       </c>
       <c r="G3">
-        <v>5.2432589572555957E-3</v>
+        <v>5.2500417199349654E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.4658958808092638E-2</v>
+        <v>3.4693258837738654E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.4885248184888379E-4</v>
+        <v>3.4926317160334481E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.1308682098054197E-3</v>
+        <v>2.1332446532787482E-3</v>
       </c>
       <c r="N3">
-        <v>8.8033949879763693E-4</v>
+        <v>8.8146910492156608E-4</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.2001293797787297E-4</v>
+        <v>1.0952719180213273E-4</v>
       </c>
       <c r="Q3">
-        <v>3.1146913206754089E-5</v>
+        <v>3.1181087146396333E-5</v>
       </c>
       <c r="R3">
-        <v>7.5624521047546595E-4</v>
+        <v>7.5714398810902174E-4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,55 +1314,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9.3401884823579983E-3</v>
+        <v>9.3534416340183141E-3</v>
       </c>
       <c r="C4">
-        <v>6.7550157293705295E-4</v>
+        <v>6.7648948951206267E-4</v>
       </c>
       <c r="D4">
-        <v>3.3945616107472043E-2</v>
+        <v>3.3995323609854161E-2</v>
       </c>
       <c r="E4">
-        <v>1.0490325084774265E-3</v>
+        <v>1.0505113566923365E-3</v>
       </c>
       <c r="F4">
-        <v>2.2908581629725831E-2</v>
+        <v>2.2942158073286759E-2</v>
       </c>
       <c r="G4">
-        <v>2.8429224265354842E-2</v>
+        <v>2.8470879018975458E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.9971444242735301E-2</v>
+        <v>5.0040091946794617E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.7878686340618327E-3</v>
+        <v>1.7904825928395434E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.4380486477817693E-3</v>
+        <v>8.4503496230284459E-3</v>
       </c>
       <c r="N4">
-        <v>2.1917363975993876E-3</v>
+        <v>2.1949331858608224E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.4423360300340436E-4</v>
+        <v>1.2865890345614741E-4</v>
       </c>
       <c r="Q4">
-        <v>2.2004578038771591E-4</v>
+        <v>2.2036783409907929E-4</v>
       </c>
       <c r="R4">
-        <v>3.5285621798043063E-3</v>
+        <v>3.5337205338966159E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,55 +1370,55 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.2443269549327653E-3</v>
+        <v>3.2377264308943621E-3</v>
       </c>
       <c r="C5">
-        <v>4.7254971050739468E-4</v>
+        <v>4.7325034293208294E-4</v>
       </c>
       <c r="D5">
-        <v>2.4972952985665559E-2</v>
+        <v>2.501020223012157E-2</v>
       </c>
       <c r="E5">
-        <v>9.202864310509009E-4</v>
+        <v>9.2103990567927747E-4</v>
       </c>
       <c r="F5">
-        <v>2.7079058620975902E-2</v>
+        <v>2.7120005110885654E-2</v>
       </c>
       <c r="G5">
-        <v>7.4654756733482062E-3</v>
+        <v>7.4767212057348037E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.9447161393346979E-2</v>
+        <v>2.9416627426585341E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.6326455684936227E-3</v>
+        <v>1.6350803385092555E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.4132967317875019E-3</v>
+        <v>9.4271679941040736E-3</v>
       </c>
       <c r="N5">
-        <v>2.0111698932109268E-3</v>
+        <v>2.0141239807560103E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.3317178581432365E-4</v>
+        <v>4.6409909072139046E-4</v>
       </c>
       <c r="Q5">
-        <v>1.092112124922165E-4</v>
+        <v>1.0937335313753354E-4</v>
       </c>
       <c r="R5">
-        <v>2.82115373039463E-3</v>
+        <v>2.8253491898486776E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,55 +1426,55 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.114711008204072E-3</v>
+        <v>2.1154061312448026E-3</v>
       </c>
       <c r="C6">
-        <v>5.6243519103227433E-4</v>
+        <v>5.6335878959856364E-4</v>
       </c>
       <c r="D6">
-        <v>1.1675560487427291E-2</v>
+        <v>1.1694512862718141E-2</v>
       </c>
       <c r="E6">
-        <v>8.5440429757611209E-4</v>
+        <v>8.5567971566291373E-4</v>
       </c>
       <c r="F6">
-        <v>2.8620691434408461E-2</v>
+        <v>2.8667680561618423E-2</v>
       </c>
       <c r="G6">
-        <v>8.1060428108619409E-3</v>
+        <v>8.1193702779326152E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.3428778545751996E-2</v>
+        <v>1.3419722590037179E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.5951143190574698E-3</v>
+        <v>1.5977333142883205E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.0002589305509747E-2</v>
+        <v>1.0018994072751416E-2</v>
       </c>
       <c r="N6">
-        <v>2.3449342562214862E-3</v>
+        <v>2.3487825894317927E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.0800192920278096E-4</v>
+        <v>3.6971170092177727E-4</v>
       </c>
       <c r="Q6">
-        <v>1.4038331607448053E-4</v>
+        <v>1.4061394996971445E-4</v>
       </c>
       <c r="R6">
-        <v>2.9896175026962882E-3</v>
+        <v>2.9945270344396598E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,55 +1482,55 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7.4339314864486266E-3</v>
+        <v>1.5820176285165858E-3</v>
       </c>
       <c r="C7">
-        <v>2.9086766377094773E-5</v>
+        <v>2.5032333063247467E-5</v>
       </c>
       <c r="D7">
-        <v>1.7319226606881385E-2</v>
+        <v>7.7424563466171577E-3</v>
       </c>
       <c r="E7">
-        <v>9.865833186342612E-4</v>
+        <v>8.5756926870283372E-4</v>
       </c>
       <c r="F7">
-        <v>8.8005931008051912E-3</v>
+        <v>1.6838567491421525E-3</v>
       </c>
       <c r="G7">
-        <v>7.0757715682573033E-5</v>
+        <v>3.0062899732108639E-5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.8697563264467723E-2</v>
+        <v>1.2086761267201391E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.5204438707637254E-5</v>
+        <v>5.3492016193785118E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.5540648777544372E-3</v>
+        <v>3.0620730690568979E-4</v>
       </c>
       <c r="N7">
-        <v>1.5620055178706502E-4</v>
+        <v>1.1046971766747806E-4</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>4.2857100865279928E-5</v>
+        <v>2.6249615608908602E-5</v>
       </c>
       <c r="Q7">
-        <v>1.3460362587413497E-5</v>
+        <v>2.5895006034169212E-6</v>
       </c>
       <c r="R7">
-        <v>1.7318958445689624E-4</v>
+        <v>1.0897719704744241E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,19 +1538,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.9433804542232163E-3</v>
+        <v>1.9423572526317252E-3</v>
       </c>
       <c r="C8">
-        <v>5.0703400401114509E-6</v>
+        <v>5.0688199351129752E-6</v>
       </c>
       <c r="D8">
-        <v>5.7860433168495781E-3</v>
+        <v>5.7852514084418332E-3</v>
       </c>
       <c r="E8">
-        <v>9.057923816722139E-4</v>
+        <v>9.0551151605447336E-4</v>
       </c>
       <c r="F8">
-        <v>5.4169749820610017E-3</v>
+        <v>5.411156388216474E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,34 +1559,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.2239909299875271E-2</v>
+        <v>1.2187506364454365E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.0913500587614157E-5</v>
+        <v>1.0910946719262372E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.3603701427795622E-5</v>
+        <v>5.3511728255686261E-5</v>
       </c>
       <c r="N8">
-        <v>1.3635772594873742E-5</v>
+        <v>1.3626941952310901E-5</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.9312900891791838E-5</v>
+        <v>1.7582509987285562E-4</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>5.7169252397148179E-5</v>
+        <v>5.7162054754236585E-5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.0862376518894618E-3</v>
+        <v>1.0862376518894642E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.2182716884900553E-3</v>
+        <v>3.2182716884900618E-3</v>
       </c>
       <c r="E9">
-        <v>1.0557204147059124E-3</v>
+        <v>1.0557204147059122E-3</v>
       </c>
       <c r="F9">
-        <v>5.755223725407997E-3</v>
+        <v>5.7552237254080065E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.798762149603322E-2</v>
+        <v>1.7987621496033335E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.068086312433015E-5</v>
+        <v>4.068086312433017E-5</v>
       </c>
       <c r="N9">
-        <v>3.6485693006159748E-5</v>
+        <v>3.6485693006159803E-5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>3.0645931074805622E-4</v>
+        <v>3.0645931074805666E-4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.3760345755339039E-3</v>
+        <v>1.3760345755339084E-3</v>
       </c>
       <c r="E10">
-        <v>8.399793451925355E-4</v>
+        <v>8.3997934519253528E-4</v>
       </c>
       <c r="F10">
-        <v>3.5779730565944643E-3</v>
+        <v>3.5779730565944669E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.0705929226777528E-2</v>
+        <v>1.0705929226777565E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.0630465392589994E-7</v>
+        <v>5.0630465392590089E-7</v>
       </c>
       <c r="N10">
         <v>0</v>
